--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl4-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl4-Ackr2.xlsx
@@ -525,16 +525,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>459.852285</v>
+        <v>0.026619</v>
       </c>
       <c r="H2">
-        <v>1379.556855</v>
+        <v>0.079857</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>5681.96824939271</v>
+        <v>0.328906298314</v>
       </c>
       <c r="R2">
-        <v>51137.71424453439</v>
+        <v>2.960156684826</v>
       </c>
       <c r="S2">
         <v>1</v>
